--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2115020.158082169</v>
+        <v>-2117879.990317438</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>150.1450882057763</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>177.2024265996548</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663201</v>
+        <v>175.4956977427598</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -741,16 +741,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>28.91273366571115</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>17.727471611456</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>52.21594625443434</v>
       </c>
       <c r="H4" t="n">
-        <v>34.10833718734084</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>382.6612299361389</v>
+        <v>12.42254329489923</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.43720189476419</v>
+        <v>37.07841416127545</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>248.1231018564067</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>382.6612299361389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8024773971665</v>
       </c>
       <c r="H6" t="n">
-        <v>97.35224439075473</v>
+        <v>97.35224439075475</v>
       </c>
       <c r="I6" t="n">
-        <v>46.46465121295522</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>34.19094819303186</v>
       </c>
       <c r="S6" t="n">
         <v>143.0590333442029</v>
       </c>
       <c r="T6" t="n">
-        <v>141.573887276122</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8399978858403</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>120.4997808249583</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>87.02715704622135</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>35.65413415037919</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>7.125011699301717</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>291.8739129883206</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1212,25 +1212,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>139.078916972838</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>20.27697994470635</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>228.1884389789245</v>
       </c>
       <c r="X10" t="n">
-        <v>185.6279506608899</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65.67353929277157</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428033</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000772</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>210.6850032871181</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>159.2661870898837</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2606,10 +2606,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3481,16 +3481,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>293.4024563932561</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="C2" t="n">
-        <v>141.7407511348962</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="D2" t="n">
-        <v>141.7407511348962</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="E2" t="n">
-        <v>141.7407511348962</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="F2" t="n">
-        <v>141.7407511348962</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262259</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262259</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262259</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262259</v>
+        <v>571.1099985646184</v>
       </c>
       <c r="V2" t="n">
-        <v>482.822241409741</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="W2" t="n">
-        <v>293.4024563932561</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="X2" t="n">
-        <v>293.4024563932561</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="Y2" t="n">
-        <v>293.4024563932561</v>
+        <v>393.8416170062752</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163.9364566345569</v>
+        <v>487.5180226099433</v>
       </c>
       <c r="C3" t="n">
-        <v>163.9364566345569</v>
+        <v>487.5180226099433</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>458.313241129427</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G3" t="n">
         <v>15.0020469733056</v>
@@ -4410,49 +4410,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017067</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652803</v>
+        <v>676.9378076264281</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652803</v>
+        <v>676.9378076264281</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652803</v>
+        <v>676.9378076264281</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487954</v>
+        <v>676.9378076264281</v>
       </c>
       <c r="V3" t="n">
-        <v>542.7760266675267</v>
+        <v>676.9378076264281</v>
       </c>
       <c r="W3" t="n">
-        <v>542.7760266675267</v>
+        <v>487.5180226099433</v>
       </c>
       <c r="X3" t="n">
-        <v>353.3562416510418</v>
+        <v>487.5180226099433</v>
       </c>
       <c r="Y3" t="n">
-        <v>163.9364566345569</v>
+        <v>487.5180226099433</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.45491281910444</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="C4" t="n">
-        <v>49.45491281910444</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="D4" t="n">
-        <v>49.45491281910444</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="E4" t="n">
-        <v>49.45491281910444</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="F4" t="n">
-        <v>49.45491281910444</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="G4" t="n">
-        <v>49.45491281910444</v>
+        <v>697.3589686102956</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>697.3589686102956</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>697.3589686102956</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>697.3589686102956</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>697.3589686102956</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>709.3965921992918</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>725.3468614886972</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>748.7753949309533</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910444</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910444</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910444</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910444</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910444</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910444</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910444</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910444</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910444</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.45491281910444</v>
+        <v>750.1023486652798</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>893.4890290450144</v>
+        <v>473.3476188697879</v>
       </c>
       <c r="C5" t="n">
-        <v>524.5265121046027</v>
+        <v>473.3476188697879</v>
       </c>
       <c r="D5" t="n">
-        <v>524.5265121046027</v>
+        <v>473.3476188697879</v>
       </c>
       <c r="E5" t="n">
-        <v>524.5265121046027</v>
+        <v>87.55936627154369</v>
       </c>
       <c r="F5" t="n">
-        <v>517.5810113553993</v>
+        <v>80.61386552234022</v>
       </c>
       <c r="G5" t="n">
-        <v>131.0545164704105</v>
+        <v>68.06584199213899</v>
       </c>
       <c r="H5" t="n">
-        <v>131.0545164704105</v>
+        <v>68.06584199213899</v>
       </c>
       <c r="I5" t="n">
-        <v>30.61289839489111</v>
+        <v>30.61289839489105</v>
       </c>
       <c r="J5" t="n">
         <v>93.3858082712145</v>
       </c>
       <c r="K5" t="n">
-        <v>238.2046462235836</v>
+        <v>238.2046462235833</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7669823190628</v>
+        <v>454.766982319062</v>
       </c>
       <c r="M5" t="n">
-        <v>727.403745764307</v>
+        <v>727.4037457643057</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.065865453889</v>
+        <v>1009.065865453887</v>
       </c>
       <c r="O5" t="n">
-        <v>1261.69615683193</v>
+        <v>1261.696156831928</v>
       </c>
       <c r="P5" t="n">
-        <v>1442.809264855774</v>
+        <v>1442.809264855771</v>
       </c>
       <c r="Q5" t="n">
-        <v>1530.644919744555</v>
+        <v>1530.644919744553</v>
       </c>
       <c r="R5" t="n">
-        <v>1530.644919744555</v>
+        <v>1530.644919744553</v>
       </c>
       <c r="S5" t="n">
-        <v>1530.644919744555</v>
+        <v>1530.644919744553</v>
       </c>
       <c r="T5" t="n">
-        <v>1530.644919744555</v>
+        <v>1530.644919744553</v>
       </c>
       <c r="U5" t="n">
-        <v>1530.644919744555</v>
+        <v>1530.644919744553</v>
       </c>
       <c r="V5" t="n">
-        <v>1530.644919744555</v>
+        <v>1199.582032400982</v>
       </c>
       <c r="W5" t="n">
-        <v>1530.644919744555</v>
+        <v>846.8133771308678</v>
       </c>
       <c r="X5" t="n">
-        <v>1280.015523930003</v>
+        <v>473.3476188697879</v>
       </c>
       <c r="Y5" t="n">
-        <v>893.4890290450144</v>
+        <v>473.3476188697879</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>324.8168995750414</v>
+        <v>895.2821703036392</v>
       </c>
       <c r="C6" t="n">
-        <v>324.8168995750414</v>
+        <v>720.8291410225122</v>
       </c>
       <c r="D6" t="n">
-        <v>175.8824899137901</v>
+        <v>571.8947313612609</v>
       </c>
       <c r="E6" t="n">
-        <v>175.8824899137901</v>
+        <v>412.6572763558054</v>
       </c>
       <c r="F6" t="n">
-        <v>175.8824899137901</v>
+        <v>266.1227183826903</v>
       </c>
       <c r="G6" t="n">
-        <v>175.8824899137901</v>
+        <v>128.9484987895928</v>
       </c>
       <c r="H6" t="n">
-        <v>77.54688951908831</v>
+        <v>30.61289839489105</v>
       </c>
       <c r="I6" t="n">
-        <v>30.61289839489111</v>
+        <v>30.61289839489105</v>
       </c>
       <c r="J6" t="n">
-        <v>49.18216652275276</v>
+        <v>49.18216652275257</v>
       </c>
       <c r="K6" t="n">
-        <v>159.0748281477044</v>
+        <v>159.074828147704</v>
       </c>
       <c r="L6" t="n">
-        <v>353.1616144543709</v>
+        <v>353.1616144543702</v>
       </c>
       <c r="M6" t="n">
-        <v>599.0086077642225</v>
+        <v>599.0086077642214</v>
       </c>
       <c r="N6" t="n">
-        <v>865.7710843621733</v>
+        <v>865.7710843621718</v>
       </c>
       <c r="O6" t="n">
-        <v>1087.586838970544</v>
+        <v>1087.586838970542</v>
       </c>
       <c r="P6" t="n">
-        <v>1246.280471422848</v>
+        <v>1246.280471422845</v>
       </c>
       <c r="Q6" t="n">
-        <v>1302.443765680485</v>
+        <v>1302.443765680483</v>
       </c>
       <c r="R6" t="n">
-        <v>1302.443765680485</v>
+        <v>1267.90745437439</v>
       </c>
       <c r="S6" t="n">
-        <v>1157.939691595431</v>
+        <v>1123.403380289337</v>
       </c>
       <c r="T6" t="n">
-        <v>1014.935765053894</v>
+        <v>1123.403380289337</v>
       </c>
       <c r="U6" t="n">
-        <v>786.8145550681968</v>
+        <v>895.2821703036392</v>
       </c>
       <c r="V6" t="n">
-        <v>786.8145550681968</v>
+        <v>895.2821703036392</v>
       </c>
       <c r="W6" t="n">
-        <v>532.5771983399952</v>
+        <v>895.2821703036392</v>
       </c>
       <c r="X6" t="n">
-        <v>532.5771983399952</v>
+        <v>895.2821703036392</v>
       </c>
       <c r="Y6" t="n">
-        <v>324.8168995750414</v>
+        <v>895.2821703036392</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>302.4464881354676</v>
+        <v>302.4464881354666</v>
       </c>
       <c r="C7" t="n">
-        <v>180.7295378072268</v>
+        <v>302.4464881354666</v>
       </c>
       <c r="D7" t="n">
-        <v>30.61289839489111</v>
+        <v>302.4464881354666</v>
       </c>
       <c r="E7" t="n">
-        <v>30.61289839489111</v>
+        <v>154.5333945530734</v>
       </c>
       <c r="F7" t="n">
-        <v>30.61289839489111</v>
+        <v>154.5333945530734</v>
       </c>
       <c r="G7" t="n">
-        <v>30.61289839489111</v>
+        <v>154.5333945530734</v>
       </c>
       <c r="H7" t="n">
-        <v>30.61289839489111</v>
+        <v>66.627175314466</v>
       </c>
       <c r="I7" t="n">
-        <v>30.61289839489111</v>
+        <v>66.627175314466</v>
       </c>
       <c r="J7" t="n">
-        <v>30.61289839489111</v>
+        <v>30.61289839489105</v>
       </c>
       <c r="K7" t="n">
-        <v>51.49054881713228</v>
+        <v>51.49054881713208</v>
       </c>
       <c r="L7" t="n">
-        <v>108.1125511363479</v>
+        <v>108.1125511363476</v>
       </c>
       <c r="M7" t="n">
-        <v>171.0707966055977</v>
+        <v>171.0707966055972</v>
       </c>
       <c r="N7" t="n">
-        <v>240.3895616221346</v>
+        <v>240.3895616221338</v>
       </c>
       <c r="O7" t="n">
-        <v>284.1035717645235</v>
+        <v>284.1035717645226</v>
       </c>
       <c r="P7" t="n">
-        <v>302.4464881354676</v>
+        <v>302.4464881354666</v>
       </c>
       <c r="Q7" t="n">
-        <v>302.4464881354676</v>
+        <v>302.4464881354666</v>
       </c>
       <c r="R7" t="n">
-        <v>302.4464881354676</v>
+        <v>302.4464881354666</v>
       </c>
       <c r="S7" t="n">
-        <v>302.4464881354676</v>
+        <v>302.4464881354666</v>
       </c>
       <c r="T7" t="n">
-        <v>302.4464881354676</v>
+        <v>302.4464881354666</v>
       </c>
       <c r="U7" t="n">
-        <v>302.4464881354676</v>
+        <v>302.4464881354666</v>
       </c>
       <c r="V7" t="n">
-        <v>302.4464881354676</v>
+        <v>302.4464881354666</v>
       </c>
       <c r="W7" t="n">
-        <v>302.4464881354676</v>
+        <v>302.4464881354666</v>
       </c>
       <c r="X7" t="n">
-        <v>302.4464881354676</v>
+        <v>302.4464881354666</v>
       </c>
       <c r="Y7" t="n">
-        <v>302.4464881354676</v>
+        <v>302.4464881354666</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>833.1755141229723</v>
+        <v>1649.725331578667</v>
       </c>
       <c r="C8" t="n">
-        <v>833.1755141229723</v>
+        <v>1642.52835006422</v>
       </c>
       <c r="D8" t="n">
-        <v>833.1755141229723</v>
+        <v>1642.52835006422</v>
       </c>
       <c r="E8" t="n">
-        <v>833.1755141229723</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="F8" t="n">
-        <v>538.3533797913353</v>
+        <v>845.7541926763686</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H8" t="n">
         <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301906</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232728</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711874</v>
+        <v>669.5878927711883</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.28654013517</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="T8" t="n">
-        <v>1826.151173794699</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="U8" t="n">
-        <v>1572.544009457208</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="V8" t="n">
-        <v>1572.544009457208</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="W8" t="n">
-        <v>1219.775354187094</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="X8" t="n">
-        <v>1219.775354187094</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="Y8" t="n">
-        <v>1219.775354187094</v>
+        <v>2036.325171642788</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>464.9088565162554</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>464.9088565162554</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>315.9744468550041</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>175.490692336986</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>175.490692336986</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>80.03532540581919</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1538.125457466754</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1302.973349235012</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>1048.73599250681</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>840.8844923012773</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>633.1241935363234</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>273.8625692440775</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>273.8625692440775</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>273.8625692440775</v>
       </c>
       <c r="W10" t="n">
-        <v>230.8721770036385</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="X10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5039,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5081,7 +5081,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.917417812163</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.917417812163</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270429</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782942</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797729</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,16 +5273,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5364,19 +5364,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580259</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>931.4710609784063</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.345997432834</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>923.4098145049275</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>773.2931750925917</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>625.3800815101986</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>478.4901340122882</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1722.776592304621</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1494.787041406604</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1273.994462263074</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,7 +6221,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6233,16 +6233,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6373,7 +6373,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6792,13 +6792,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580118</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
         <v>2496.057455973196</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7132,10 +7132,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345469</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7348,34 +7348,34 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931272</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150029</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547835</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7646,10 +7646,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7792,7 +7792,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7804,22 +7804,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -7834,10 +7834,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>215.1278035652313</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,10 +22604,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038148</v>
+        <v>152.2565607273751</v>
       </c>
       <c r="W2" t="n">
-        <v>19.42747934351287</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22629,7 +22629,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>118.5323318989276</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -22647,7 +22647,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22717,13 +22717,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>114.7859889482798</v>
       </c>
       <c r="H4" t="n">
-        <v>119.3253336444787</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22747,16 +22747,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>114.1584408891657</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194356</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.158440889167</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>15.02465210191909</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>6.257951202385129</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67700.8563577287</v>
+        <v>67700.85635772865</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.1769864283</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="D2" t="n">
         <v>82104.1769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>80714.65996900063</v>
+        <v>80714.65996900064</v>
       </c>
       <c r="F2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.65996900067</v>
       </c>
       <c r="G2" t="n">
         <v>80714.6599690006</v>
       </c>
       <c r="H2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900064</v>
       </c>
       <c r="I2" t="n">
-        <v>80714.65996900057</v>
+        <v>80714.65996900058</v>
       </c>
       <c r="J2" t="n">
-        <v>80714.65996900057</v>
+        <v>80714.65996900058</v>
       </c>
       <c r="K2" t="n">
         <v>80714.65996900058</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="M2" t="n">
+        <v>82104.1769864283</v>
+      </c>
+      <c r="N2" t="n">
         <v>82104.17698642836</v>
       </c>
-      <c r="N2" t="n">
-        <v>82104.17698642831</v>
-      </c>
       <c r="O2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642836</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>216004.0468996504</v>
+        <v>216004.0468996498</v>
       </c>
       <c r="D3" t="n">
-        <v>167084.5112960615</v>
+        <v>167084.5112960635</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742652</v>
+        <v>601443.207574264</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
-        <v>50221.67010838271</v>
+        <v>50221.67010838258</v>
       </c>
       <c r="L3" t="n">
-        <v>59784.02116064585</v>
+        <v>59784.02116064628</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515977</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>196327.1528969923</v>
       </c>
       <c r="C4" t="n">
-        <v>221112.0537468116</v>
+        <v>221112.0537468119</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888974</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
@@ -26430,7 +26430,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
@@ -26439,25 +26439,25 @@
         <v>15436.64000687969</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687965</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="L4" t="n">
+        <v>23427.49926997315</v>
+      </c>
+      <c r="M4" t="n">
         <v>23427.49926997314</v>
       </c>
-      <c r="M4" t="n">
-        <v>23427.49926997317</v>
-      </c>
       <c r="N4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997315</v>
       </c>
       <c r="O4" t="n">
         <v>23427.49926997316</v>
       </c>
       <c r="P4" t="n">
-        <v>23427.49926997313</v>
+        <v>23427.49926997314</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>72511.97598790107</v>
+        <v>72511.97598790101</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-776968.9994717228</v>
+        <v>-777329.0824874401</v>
       </c>
       <c r="C6" t="n">
-        <v>-427523.8996479348</v>
+        <v>-427523.8996479344</v>
       </c>
       <c r="D6" t="n">
-        <v>-344382.4062544032</v>
+        <v>-344382.4062544049</v>
       </c>
       <c r="E6" t="n">
-        <v>-637287.7174360513</v>
+        <v>-637322.4553614858</v>
       </c>
       <c r="F6" t="n">
-        <v>-35844.50986178617</v>
+        <v>-35879.2477872218</v>
       </c>
       <c r="G6" t="n">
-        <v>-35844.5098617862</v>
+        <v>-35879.24778722187</v>
       </c>
       <c r="H6" t="n">
-        <v>-35844.50986178618</v>
+        <v>-35879.24778722183</v>
       </c>
       <c r="I6" t="n">
-        <v>-35844.50986178624</v>
+        <v>-35879.24778722191</v>
       </c>
       <c r="J6" t="n">
-        <v>-84909.45459033088</v>
+        <v>-84944.1925157665</v>
       </c>
       <c r="K6" t="n">
-        <v>-86066.17997016892</v>
+        <v>-86100.91789560449</v>
       </c>
       <c r="L6" t="n">
-        <v>-104271.459298106</v>
+        <v>-104271.4592981065</v>
       </c>
       <c r="M6" t="n">
-        <v>-201633.8186890582</v>
+        <v>-201633.818689058</v>
       </c>
       <c r="N6" t="n">
-        <v>-44487.43813746023</v>
+        <v>-44487.43813746019</v>
       </c>
       <c r="O6" t="n">
-        <v>-44487.43813746017</v>
+        <v>-44487.4381374602</v>
       </c>
       <c r="P6" t="n">
-        <v>-44487.43813746017</v>
+        <v>-44487.43813746019</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203975</v>
-      </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>716.4483122836618</v>
+        <v>716.4483122836612</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>382.6612299361389</v>
+        <v>382.6612299361382</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>167.978371370757</v>
+        <v>167.9783713707566</v>
       </c>
       <c r="D3" t="n">
-        <v>137.2623522540223</v>
+        <v>137.262352254024</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039896</v>
+        <v>514.2648358039886</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>195.1356427698188</v>
+        <v>195.1356427698182</v>
       </c>
       <c r="D4" t="n">
-        <v>159.4537267900243</v>
+        <v>159.4537267900262</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.593331373484</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698188</v>
+        <v>195.1356427698182</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900243</v>
+        <v>159.4537267900262</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698188</v>
+        <v>195.1356427698182</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900243</v>
+        <v>159.4537267900262</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27433,13 +27433,13 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>73.96683396537557</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>142.2879022075801</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27464,22 +27464,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377086</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>215.0731155379693</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715741</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.1571086109843</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27549,19 +27549,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,19 +27576,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76131335876039</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>309.978013057777</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>62.35878773348885</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.66253762724335</v>
+        <v>34.66253762724355</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3876437926214</v>
+        <v>143.3876437926215</v>
       </c>
       <c r="T5" t="n">
         <v>210.487799365049</v>
@@ -27673,16 +27673,16 @@
         <v>251.1152373702176</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>121.6079988220623</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.576708719914734</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,25 +27695,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8024773971665</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>46.46465121295527</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.99985954238356</v>
+        <v>15.8089113493518</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>52.37936973012717</v>
+        <v>193.9532570062491</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>46.74704027366953</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>166.6990233854882</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7405094023015</v>
+        <v>63.71335235608019</v>
       </c>
       <c r="I7" t="n">
         <v>116.5978353037443</v>
       </c>
       <c r="J7" t="n">
-        <v>35.65413415037911</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>43.32130647461291</v>
+        <v>43.32130647461301</v>
       </c>
       <c r="R7" t="n">
-        <v>119.2023528106942</v>
+        <v>119.2023528106943</v>
       </c>
       <c r="S7" t="n">
         <v>201.5013289443857</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>358.1478800717059</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>115.0021327533908</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27932,25 +27932,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>18.56616348256298</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -27986,7 +27986,7 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5435940233622</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>58.33455935766654</v>
       </c>
       <c r="X10" t="n">
-        <v>40.08170472814723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="24">
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30472,10 +30472,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31042,46 +31042,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,34 +31133,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.880194220235824</v>
+        <v>2.880194220235822</v>
       </c>
       <c r="H5" t="n">
-        <v>29.49678905799014</v>
+        <v>29.49678905799011</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0386876756417</v>
+        <v>111.0386876756416</v>
       </c>
       <c r="J5" t="n">
-        <v>244.4528841997405</v>
+        <v>244.4528841997403</v>
       </c>
       <c r="K5" t="n">
-        <v>366.371505542323</v>
+        <v>366.3715055423227</v>
       </c>
       <c r="L5" t="n">
-        <v>454.5162494098652</v>
+        <v>454.5162494098648</v>
       </c>
       <c r="M5" t="n">
-        <v>505.736903373984</v>
+        <v>505.7369033739836</v>
       </c>
       <c r="N5" t="n">
-        <v>513.9202552022291</v>
+        <v>513.9202552022286</v>
       </c>
       <c r="O5" t="n">
-        <v>485.2803239247591</v>
+        <v>485.2803239247586</v>
       </c>
       <c r="P5" t="n">
-        <v>414.1755291126871</v>
+        <v>414.1755291126868</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.0285736004916</v>
+        <v>311.0285736004913</v>
       </c>
       <c r="R5" t="n">
-        <v>180.9230001868888</v>
+        <v>180.9230001868886</v>
       </c>
       <c r="S5" t="n">
-        <v>65.63242579362391</v>
+        <v>65.63242579362385</v>
       </c>
       <c r="T5" t="n">
-        <v>12.60805019908233</v>
+        <v>12.60805019908232</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2304155376188659</v>
+        <v>0.2304155376188657</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541039766044103</v>
+        <v>1.541039766044101</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88319984574173</v>
+        <v>14.88319984574172</v>
       </c>
       <c r="I6" t="n">
-        <v>53.05772878704477</v>
+        <v>53.05772878704472</v>
       </c>
       <c r="J6" t="n">
-        <v>145.5944631594562</v>
+        <v>145.5944631594561</v>
       </c>
       <c r="K6" t="n">
-        <v>248.8441274844111</v>
+        <v>248.8441274844109</v>
       </c>
       <c r="L6" t="n">
-        <v>334.601638675497</v>
+        <v>334.6016386754967</v>
       </c>
       <c r="M6" t="n">
-        <v>390.4643301945957</v>
+        <v>390.4643301945953</v>
       </c>
       <c r="N6" t="n">
-        <v>400.7987591519704</v>
+        <v>400.79875915197</v>
       </c>
       <c r="O6" t="n">
-        <v>366.6525622306774</v>
+        <v>366.6525622306771</v>
       </c>
       <c r="P6" t="n">
-        <v>294.2710058510007</v>
+        <v>294.2710058510004</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7123743462613</v>
+        <v>196.7123743462611</v>
       </c>
       <c r="R6" t="n">
-        <v>95.67964442158039</v>
+        <v>95.67964442158029</v>
       </c>
       <c r="S6" t="n">
-        <v>28.62413775963496</v>
+        <v>28.62413775963493</v>
       </c>
       <c r="T6" t="n">
-        <v>6.2114716885725</v>
+        <v>6.211471688572494</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1013841951344805</v>
+        <v>0.1013841951344804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.291955972970538</v>
+        <v>1.291955972970536</v>
       </c>
       <c r="H7" t="n">
-        <v>11.48666310513806</v>
+        <v>11.48666310513805</v>
       </c>
       <c r="I7" t="n">
-        <v>38.85263962351399</v>
+        <v>38.85263962351396</v>
       </c>
       <c r="J7" t="n">
-        <v>91.341287289017</v>
+        <v>91.34128728901692</v>
       </c>
       <c r="K7" t="n">
-        <v>150.101793950577</v>
+        <v>150.1017939505768</v>
       </c>
       <c r="L7" t="n">
-        <v>192.0786180178198</v>
+        <v>192.0786180178196</v>
       </c>
       <c r="M7" t="n">
-        <v>202.5199712902816</v>
+        <v>202.5199712902814</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7044990273916</v>
+        <v>197.7044990273914</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6121042522357</v>
+        <v>182.6121042522355</v>
       </c>
       <c r="P7" t="n">
-        <v>156.2562024036366</v>
+        <v>156.2562024036365</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.1836951548329</v>
+        <v>108.1836951548328</v>
       </c>
       <c r="R7" t="n">
-        <v>58.09103856647525</v>
+        <v>58.09103856647519</v>
       </c>
       <c r="S7" t="n">
-        <v>22.51526909258654</v>
+        <v>22.51526909258652</v>
       </c>
       <c r="T7" t="n">
-        <v>5.520175520874114</v>
+        <v>5.520175520874108</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07047032579839305</v>
+        <v>0.07047032579839298</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>302.9675447508045</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>164.9290651940687</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,19 +32315,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>688.8020111197787</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33521,7 +33521,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.40697967305422</v>
+        <v>63.406979673054</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2816544973425</v>
+        <v>146.2816544973421</v>
       </c>
       <c r="L5" t="n">
-        <v>218.749834439878</v>
+        <v>218.7498344398776</v>
       </c>
       <c r="M5" t="n">
-        <v>275.3906701467113</v>
+        <v>275.3906701467108</v>
       </c>
       <c r="N5" t="n">
-        <v>284.5071916056382</v>
+        <v>284.5071916056377</v>
       </c>
       <c r="O5" t="n">
-        <v>255.1821125030724</v>
+        <v>255.1821125030719</v>
       </c>
       <c r="P5" t="n">
-        <v>182.9425333574176</v>
+        <v>182.9425333574172</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.72288372604211</v>
+        <v>88.72288372604183</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.75683649278955</v>
+        <v>18.7568364927894</v>
       </c>
       <c r="K6" t="n">
-        <v>111.0026885100521</v>
+        <v>111.0026885100519</v>
       </c>
       <c r="L6" t="n">
-        <v>196.0472588956228</v>
+        <v>196.0472588956225</v>
       </c>
       <c r="M6" t="n">
-        <v>248.3302962725774</v>
+        <v>248.330296272577</v>
       </c>
       <c r="N6" t="n">
-        <v>269.4570470686372</v>
+        <v>269.4570470686367</v>
       </c>
       <c r="O6" t="n">
-        <v>224.056317786233</v>
+        <v>224.0563177862326</v>
       </c>
       <c r="P6" t="n">
-        <v>160.2965984366704</v>
+        <v>160.2965984366701</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.73060026023978</v>
+        <v>56.73060026023958</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.08853578004158</v>
+        <v>21.08853578004144</v>
       </c>
       <c r="L7" t="n">
-        <v>57.19394173658148</v>
+        <v>57.19394173658131</v>
       </c>
       <c r="M7" t="n">
-        <v>63.59418734267655</v>
+        <v>63.59418734267635</v>
       </c>
       <c r="N7" t="n">
-        <v>70.0189545621584</v>
+        <v>70.0189545621582</v>
       </c>
       <c r="O7" t="n">
-        <v>44.15556580039291</v>
+        <v>44.15556580039274</v>
       </c>
       <c r="P7" t="n">
-        <v>18.52819835448898</v>
+        <v>18.52819835448884</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295185</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066232</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>546.2057666753343</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
